--- a/views/app/temp/cargaturno.xlsx
+++ b/views/app/temp/cargaturno.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C3" sqref="C3:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -791,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1211,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1351,7 +1351,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1421,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1456,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1491,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1526,7 +1526,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1561,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -1596,7 +1596,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1666,7 +1666,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1701,7 +1701,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1736,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1806,7 +1806,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1841,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1911,7 +1911,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1946,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1981,7 +1981,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -2016,7 +2016,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -2051,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -2086,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>40</v>
       </c>
       <c r="C47" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -2156,7 +2156,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -2191,7 +2191,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -2226,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -2261,7 +2261,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -2296,7 +2296,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -2331,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -2366,7 +2366,7 @@
         <v>40</v>
       </c>
       <c r="C54" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -2401,7 +2401,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2436,7 +2436,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
